--- a/backend/projects/project-a-123-sunset-blvd/data/08_LABOUR_TIMESHEETS/Timesheets_September_2024.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/08_LABOUR_TIMESHEETS/Timesheets_September_2024.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,6 +988,512 @@
       </c>
       <c r="E23" s="5" t="n">
         <v>10087.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36461</v>
+      </c>
+      <c r="B24" t="n">
+        <v>47644</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7767</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>25162</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12062</v>
+      </c>
+      <c r="B25" t="n">
+        <v>49744</v>
+      </c>
+      <c r="C25" t="n">
+        <v>37780</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>34894</v>
+      </c>
+      <c r="F25" t="n">
+        <v>41960</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>46722</v>
+      </c>
+      <c r="B26" t="n">
+        <v>35784</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25232</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>38814</v>
+      </c>
+      <c r="F26" t="n">
+        <v>35206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7253</v>
+      </c>
+      <c r="B27" t="n">
+        <v>49030</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10417</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>3889</v>
+      </c>
+      <c r="F27" t="n">
+        <v>23154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>14370</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6726</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46663</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>12356</v>
+      </c>
+      <c r="F28" t="n">
+        <v>42994</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20595</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26112</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12010</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>38369</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28052</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9924</v>
+      </c>
+      <c r="B30" t="n">
+        <v>42976</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18678</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>31133</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B31" t="n">
+        <v>28236</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8148</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1194</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15934</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>26495</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19984</v>
+      </c>
+      <c r="C32" t="n">
+        <v>22275</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>6651</v>
+      </c>
+      <c r="F32" t="n">
+        <v>19632</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7722</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20070</v>
+      </c>
+      <c r="C33" t="n">
+        <v>37416</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1822</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14506</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>46614</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34059</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15657</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>16304</v>
+      </c>
+      <c r="F34" t="n">
+        <v>29722</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>13993</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15319</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35519</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>24126</v>
+      </c>
+      <c r="F35" t="n">
+        <v>46371</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>12447</v>
+      </c>
+      <c r="B36" t="n">
+        <v>37769</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20366</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>45180</v>
+      </c>
+      <c r="F36" t="n">
+        <v>21007</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>19012</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11754</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10275</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>19627</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47521</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36869</v>
+      </c>
+      <c r="B38" t="n">
+        <v>48308</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30951</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>13458</v>
+      </c>
+      <c r="F38" t="n">
+        <v>46729</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9219</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6300</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23742</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>26069</v>
+      </c>
+      <c r="F39" t="n">
+        <v>21372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44121</v>
+      </c>
+      <c r="B40" t="n">
+        <v>23338</v>
+      </c>
+      <c r="C40" t="n">
+        <v>17477</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>43418</v>
+      </c>
+      <c r="F40" t="n">
+        <v>45928</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6679</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14100</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13649</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>8316</v>
+      </c>
+      <c r="F41" t="n">
+        <v>31530</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8584</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12613</v>
+      </c>
+      <c r="C42" t="n">
+        <v>21438</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>11170</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17704</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>24080</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11071</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12920</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>8888</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8419</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21058</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12942</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>28111</v>
+      </c>
+      <c r="F44" t="n">
+        <v>38382</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13176</v>
+      </c>
+      <c r="B45" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20508</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>44590</v>
+      </c>
+      <c r="F45" t="n">
+        <v>26061</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21177</v>
+      </c>
+      <c r="B46" t="n">
+        <v>30634</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21475</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13980</v>
       </c>
     </row>
   </sheetData>
